--- a/03_Analisis_de_Datos/Ejercicios/03_Analisis_de_Datos/Sprint_05/Unidad_02/Ejercicios_Workout/data/dataset_eventos_excel.xlsx
+++ b/03_Analisis_de_Datos/Ejercicios/03_Analisis_de_Datos/Sprint_05/Unidad_02/Ejercicios_Workout/data/dataset_eventos_excel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,17 +434,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>año</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>año</t>
+          <t>acontecimiento</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>acontecimiento</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>lugar</t>
         </is>
@@ -452,17 +452,14 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
         <v>1776</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>La firma de la Declaración de Independencia de Estados Unidos</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>La firma de la Declaración de Independencia de Estados Unidos</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>Estados Unidos</t>
         </is>
@@ -470,17 +467,14 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
         <v>476</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>La caída del Imperio Romano de Occidente</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>La caída del Imperio Romano de Occidente</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>Italia</t>
         </is>
@@ -488,17 +482,14 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
         <v>1789</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>La Revolución Francesa</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>La Revolución Francesa</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>Francia</t>
         </is>
@@ -506,17 +497,14 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
         <v>1492</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>El descubrimiento de América por Cristóbal Colón</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>El descubrimiento de América por Cristóbal Colón</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>Bahamas</t>
         </is>
@@ -524,17 +512,14 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
         <v>1912</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>El hundimiento del Titanic</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>El hundimiento del Titanic</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>el Atlántico Norte</t>
         </is>
@@ -542,17 +527,14 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
         <v>1903</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>El primer vuelo de los hermanos Wright</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>El primer vuelo de los hermanos Wright</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>Estados Unidos</t>
         </is>
@@ -560,17 +542,14 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
         <v>753</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La fundación de Roma</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>La fundación de Roma</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>Italia</t>
         </is>
@@ -578,17 +557,14 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
         <v>1914</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>El inicio de la Primera Guerra Mundial</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>El inicio de la Primera Guerra Mundial</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>Europa</t>
         </is>
@@ -596,17 +572,14 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
         <v>1945</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>El final de la Segunda Guerra Mundial</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>El final de la Segunda Guerra Mundial</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>el Mundo</t>
         </is>
@@ -614,17 +587,14 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
         <v>1989</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La caída del Muro de Berlín</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>La caída del Muro de Berlín</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
         <is>
           <t>Alemania</t>
         </is>
@@ -632,17 +602,14 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
         <v>1868</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>El inicio de la era Meiji</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>El inicio de la era Meiji</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>Japón</t>
         </is>
@@ -650,17 +617,14 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1440</v>
+        <v>144</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La invención de la imprenta por Johannes Gutenberg</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>La invención de la imprenta por Johannes Gutenberg</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t>Alemania</t>
         </is>
@@ -668,17 +632,14 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
         <v>1919</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La firma del Tratado de Versalles</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>La firma del Tratado de Versalles</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
         <is>
           <t>Francia</t>
         </is>
@@ -686,17 +647,14 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
         <v>1917</v>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>La Revolución Rusa</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>La Revolución Rusa</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t>Rusia</t>
         </is>
@@ -704,17 +662,14 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
         <v>1453</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>La conquista de Constantinopla por los otomanos</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
-        <is>
-          <t>La conquista de Constantinopla por los otomanos</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
         <is>
           <t>Turquía</t>
         </is>
@@ -722,17 +677,14 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
         <v>563</v>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>El nacimiento de Buda Gautama</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>El nacimiento de Buda Gautama</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t>Nepal</t>
         </is>
@@ -740,17 +692,14 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
         <v>1993</v>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>La creación de la Unión Europea</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>La creación de la Unión Europea</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>Europa</t>
         </is>
@@ -758,17 +707,14 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
         <v>1953</v>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>La primera ascensión al Everest</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>La primera ascensión al Everest</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
         <is>
           <t>Nepal/China</t>
         </is>
@@ -776,17 +722,14 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1300</v>
+        <v>130</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>El inicio del Renacimiento</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
-        <is>
-          <t>El inicio del Renacimiento</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
         <is>
           <t>Italia</t>
         </is>
@@ -794,17 +737,14 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
         <v>1944</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>La invasión de Normandía durante la Segunda Guerra Mundial</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
-        <is>
-          <t>La invasión de Normandía durante la Segunda Guerra Mundial</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>Francia</t>
         </is>
@@ -812,17 +752,14 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
         <v>1533</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>La caída del Imperio Inca</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>La caída del Imperio Inca</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
         <is>
           <t>Perú</t>
         </is>
@@ -830,17 +767,14 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
         <v>1947</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>La independencia de la India</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
-        <is>
-          <t>La independencia de la India</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
         <is>
           <t>India</t>
         </is>
@@ -848,17 +782,14 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
         <v>1928</v>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>El descubrimiento de la penicilina por Alexander Fleming</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
-        <is>
-          <t>El descubrimiento de la penicilina por Alexander Fleming</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>Reino Unido</t>
         </is>
@@ -866,17 +797,14 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
         <v>1949</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>La creación de la República Popular China</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>La creación de la República Popular China</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -884,17 +812,14 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
         <v>700</v>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>El inicio de la construcción de la Gran Muralla China</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>El inicio de la construcción de la Gran Muralla China</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
         <is>
           <t>China</t>
         </is>
@@ -902,17 +827,14 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
         <v>1492</v>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>El descubrimiento del Nuevo Mundo por Cristóbal Colón</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
-        <is>
-          <t>El descubrimiento del Nuevo Mundo por Cristóbal Colón</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
         <is>
           <t>Bahamas</t>
         </is>
@@ -920,17 +842,14 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
         <v>1494</v>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>La firma del Tratado de Tordesillas</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
-        <is>
-          <t>La firma del Tratado de Tordesillas</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
         <is>
           <t>España/Portugal</t>
         </is>
